--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrp-Mc5r.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8343319999999999</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H2">
-        <v>2.502996</v>
+        <v>0.671849</v>
       </c>
       <c r="I2">
-        <v>0.7235598159154505</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="J2">
-        <v>0.7235598159154506</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2712813333333333</v>
+        <v>0.01518366666666667</v>
       </c>
       <c r="N2">
-        <v>0.813844</v>
+        <v>0.045551</v>
       </c>
       <c r="O2">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="P2">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="Q2">
-        <v>0.2263386974026666</v>
+        <v>0.003400377088777778</v>
       </c>
       <c r="R2">
-        <v>2.037048276624</v>
+        <v>0.030603393799</v>
       </c>
       <c r="S2">
-        <v>0.1380800670308442</v>
+        <v>0.01010890076479495</v>
       </c>
       <c r="T2">
-        <v>0.1380800670308442</v>
+        <v>0.01010890076479495</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.8343319999999999</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H3">
-        <v>2.502996</v>
+        <v>0.671849</v>
       </c>
       <c r="I3">
-        <v>0.7235598159154505</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="J3">
-        <v>0.7235598159154506</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.671582</v>
       </c>
       <c r="O3">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="P3">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="Q3">
-        <v>0.4648847844079999</v>
+        <v>0.1247834105686667</v>
       </c>
       <c r="R3">
-        <v>4.183963059671999</v>
+        <v>1.123050695118</v>
       </c>
       <c r="S3">
-        <v>0.2836073677603478</v>
+        <v>0.3709656551605337</v>
       </c>
       <c r="T3">
-        <v>0.2836073677603479</v>
+        <v>0.3709656551605336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.8343319999999999</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H4">
-        <v>2.502996</v>
+        <v>0.671849</v>
       </c>
       <c r="I4">
-        <v>0.7235598159154505</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="J4">
-        <v>0.7235598159154506</v>
+        <v>0.4264743968982249</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5930786666666666</v>
+        <v>0.068191</v>
       </c>
       <c r="N4">
-        <v>1.779236</v>
+        <v>0.204573</v>
       </c>
       <c r="O4">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="P4">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="Q4">
-        <v>0.4948245101173332</v>
+        <v>0.01527135171966667</v>
       </c>
       <c r="R4">
-        <v>4.453420591055999</v>
+        <v>0.137442165477</v>
       </c>
       <c r="S4">
-        <v>0.3018723811242585</v>
+        <v>0.04539984097289625</v>
       </c>
       <c r="T4">
-        <v>0.3018723811242586</v>
+        <v>0.04539984097289625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.630374</v>
       </c>
       <c r="I5">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="J5">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2712813333333333</v>
+        <v>0.01518366666666667</v>
       </c>
       <c r="N5">
-        <v>0.813844</v>
+        <v>0.045551</v>
       </c>
       <c r="O5">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="P5">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="Q5">
-        <v>0.05700289973955555</v>
+        <v>0.003190462897111111</v>
       </c>
       <c r="R5">
-        <v>0.513026097656</v>
+        <v>0.028714166074</v>
       </c>
       <c r="S5">
-        <v>0.0347751591191122</v>
+        <v>0.009484851820434131</v>
       </c>
       <c r="T5">
-        <v>0.03477515911911221</v>
+        <v>0.009484851820434131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.630374</v>
       </c>
       <c r="I6">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="J6">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.671582</v>
       </c>
       <c r="O6">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="P6">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="Q6">
         <v>0.1170802035186667</v>
@@ -818,10 +818,10 @@
         <v>1.053721831668</v>
       </c>
       <c r="S6">
-        <v>0.07142588755417968</v>
+        <v>0.3480649727932411</v>
       </c>
       <c r="T6">
-        <v>0.07142588755417971</v>
+        <v>0.3480649727932411</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>0.630374</v>
       </c>
       <c r="I7">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="J7">
-        <v>0.1822269373973775</v>
+        <v>0.4001470143891285</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.5930786666666666</v>
+        <v>0.068191</v>
       </c>
       <c r="N7">
-        <v>1.779236</v>
+        <v>0.204573</v>
       </c>
       <c r="O7">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="P7">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="Q7">
-        <v>0.1246204571404444</v>
+        <v>0.01432861114466667</v>
       </c>
       <c r="R7">
-        <v>1.121584114264</v>
+        <v>0.128957500302</v>
       </c>
       <c r="S7">
-        <v>0.0760258907240856</v>
+        <v>0.04259718977545326</v>
       </c>
       <c r="T7">
-        <v>0.07602589072408562</v>
+        <v>0.04259718977545326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1086366666666667</v>
+        <v>0.09104433333333334</v>
       </c>
       <c r="H8">
-        <v>0.32591</v>
+        <v>0.273133</v>
       </c>
       <c r="I8">
-        <v>0.09421324668717189</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="J8">
-        <v>0.09421324668717192</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2712813333333333</v>
+        <v>0.01518366666666667</v>
       </c>
       <c r="N8">
-        <v>0.813844</v>
+        <v>0.045551</v>
       </c>
       <c r="O8">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="P8">
-        <v>0.1908343498265513</v>
+        <v>0.02370341769240456</v>
       </c>
       <c r="Q8">
-        <v>0.02947109978222222</v>
+        <v>0.001382386809222222</v>
       </c>
       <c r="R8">
-        <v>0.26523989804</v>
+        <v>0.012441481283</v>
       </c>
       <c r="S8">
-        <v>0.01797912367659494</v>
+        <v>0.00410966510717548</v>
       </c>
       <c r="T8">
-        <v>0.01797912367659495</v>
+        <v>0.00410966510717548</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1086366666666667</v>
+        <v>0.09104433333333334</v>
       </c>
       <c r="H9">
-        <v>0.32591</v>
+        <v>0.273133</v>
       </c>
       <c r="I9">
-        <v>0.09421324668717189</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="J9">
-        <v>0.09421324668717192</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>1.671582</v>
       </c>
       <c r="O9">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="P9">
-        <v>0.3919611917661939</v>
+        <v>0.8698427334878488</v>
       </c>
       <c r="Q9">
-        <v>0.06053169884666666</v>
+        <v>0.05072935626733333</v>
       </c>
       <c r="R9">
-        <v>0.5447852896199999</v>
+        <v>0.456564206406</v>
       </c>
       <c r="S9">
-        <v>0.03692793645166631</v>
+        <v>0.150812105534074</v>
       </c>
       <c r="T9">
-        <v>0.03692793645166632</v>
+        <v>0.150812105534074</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.1086366666666667</v>
+        <v>0.09104433333333334</v>
       </c>
       <c r="H10">
-        <v>0.32591</v>
+        <v>0.273133</v>
       </c>
       <c r="I10">
-        <v>0.09421324668717189</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="J10">
-        <v>0.09421324668717192</v>
+        <v>0.1733785887126465</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.5930786666666666</v>
+        <v>0.068191</v>
       </c>
       <c r="N10">
-        <v>1.779236</v>
+        <v>0.204573</v>
       </c>
       <c r="O10">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="P10">
-        <v>0.4172044584072548</v>
+        <v>0.1064538488197466</v>
       </c>
       <c r="Q10">
-        <v>0.06443008941777777</v>
+        <v>0.006208404134333334</v>
       </c>
       <c r="R10">
-        <v>0.57987080476</v>
+        <v>0.055875637209</v>
       </c>
       <c r="S10">
-        <v>0.03930618655891064</v>
+        <v>0.0184568180713971</v>
       </c>
       <c r="T10">
-        <v>0.03930618655891065</v>
+        <v>0.0184568180713971</v>
       </c>
     </row>
   </sheetData>
